--- a/Files/Materialen + kostenbereking lijst.xlsx
+++ b/Files/Materialen + kostenbereking lijst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tessaspeets/Desktop/Ma College Leerjaar 2 /Module 2 KUNSTSPEELTUIN/Realiseren/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Mediacollege Amsterdam\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7913CBC9-9539-7548-B3CB-EF2236108AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65942A97-EADE-4430-BA38-E8CB3BE7A64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{2BD5CEB2-6352-0747-891A-368C17545E83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BD5CEB2-6352-0747-891A-368C17545E83}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,13 +505,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDA2B26-7C15-D549-ACBA-E7C8ED22D8D4}">
   <dimension ref="A2:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="28.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="18.95">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" t="s">
         <v>6</v>
       </c>
